--- a/nba_merged.xlsx
+++ b/nba_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\GitHub\groupAC-3_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E899198-DB1A-4785-8E7C-3768D95FE3DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF60F77-B413-47D0-9490-D5B2C441E5E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1680" windowWidth="17460" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Player</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>MP</t>
   </si>
   <si>
     <t>FG</t>
@@ -52,9 +46,6 @@
     <t>3P%</t>
   </si>
   <si>
-    <t>FT</t>
-  </si>
-  <si>
     <t>FTA</t>
   </si>
   <si>
@@ -67,22 +58,7 @@
     <t>DRB</t>
   </si>
   <si>
-    <t>TRB</t>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
-    <t>STL</t>
-  </si>
-  <si>
-    <t>BLK</t>
-  </si>
-  <si>
     <t>TOV</t>
-  </si>
-  <si>
-    <t>PTS</t>
   </si>
   <si>
     <t>Álex Abrines</t>
@@ -869,6 +845,30 @@
   </si>
   <si>
     <t>WNBA</t>
+  </si>
+  <si>
+    <t>Rebounds</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Steals</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Games_Played</t>
+  </si>
+  <si>
+    <t>Minutes_Played</t>
+  </si>
+  <si>
+    <t>Free_Throws</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:AC642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X118" sqref="X118:X256"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1778,7 @@
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,70 +1786,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="1"/>
     </row>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>75</v>
@@ -1921,10 +1921,10 @@
         <v>5995000</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -1996,10 +1996,10 @@
         <v>1790000</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC3" s="3"/>
     </row>
@@ -2008,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>76</v>
@@ -2071,10 +2071,10 @@
         <v>27530000</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>69</v>
@@ -2146,10 +2146,10 @@
         <v>5100000</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>53</v>
@@ -2221,10 +2221,10 @@
         <v>2329000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>21</v>
@@ -2294,10 +2294,10 @@
         <v>7644000</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
@@ -2306,7 +2306,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>75</v>
@@ -2369,10 +2369,10 @@
         <v>24000000</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X8" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
@@ -2381,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>72</v>
@@ -2444,10 +2444,10 @@
         <v>2508646</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
@@ -2456,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>18</v>
@@ -2519,10 +2519,10 @@
         <v>77250</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
@@ -2531,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>22</v>
@@ -2594,10 +2594,10 @@
         <v>4831000</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X11" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>69</v>
@@ -2669,10 +2669,10 @@
         <v>8040000</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
@@ -2681,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
         <v>38</v>
@@ -2744,10 +2744,10 @@
         <v>1514000</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X13" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
@@ -2756,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>74</v>
@@ -2819,10 +2819,10 @@
         <v>2152000</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X14" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC14" s="3"/>
     </row>
@@ -2831,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>66</v>
@@ -2894,10 +2894,10 @@
         <v>18740000</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC15" s="3"/>
     </row>
@@ -2906,7 +2906,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
@@ -2967,10 +2967,10 @@
         <v>950000</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X16" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC16" s="3"/>
     </row>
@@ -2979,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>75</v>
@@ -3042,10 +3042,10 @@
         <v>27530000</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X17" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC17" s="3"/>
     </row>
@@ -3054,7 +3054,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>78</v>
@@ -3117,10 +3117,10 @@
         <v>2159000</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X18" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC18" s="3"/>
     </row>
@@ -3129,7 +3129,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>74</v>
@@ -3192,10 +3192,10 @@
         <v>3872000</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X19" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC19" s="3"/>
     </row>
@@ -3204,7 +3204,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>24</v>
@@ -3267,10 +3267,10 @@
         <v>3000000</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X20" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC20" s="3"/>
     </row>
@@ -3279,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3">
         <v>67</v>
@@ -3342,10 +3342,10 @@
         <v>7259000</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X21" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC21" s="3"/>
     </row>
@@ -3354,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3">
         <v>19</v>
@@ -3417,10 +3417,10 @@
         <v>7132000</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X22" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC22" s="3"/>
     </row>
@@ -3429,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3">
         <v>15</v>
@@ -3492,10 +3492,10 @@
         <v>77250</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X23" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC23" s="3"/>
     </row>
@@ -3504,7 +3504,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>18</v>
@@ -3565,10 +3565,10 @@
         <v>10000000</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X24" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC24" s="3"/>
     </row>
@@ -3577,7 +3577,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>75</v>
@@ -3640,10 +3640,10 @@
         <v>7250000</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC25" s="3"/>
     </row>
@@ -3652,7 +3652,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3">
         <v>50</v>
@@ -3715,10 +3715,10 @@
         <v>1227000</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X26" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC26" s="3"/>
     </row>
@@ -3727,7 +3727,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>53</v>
@@ -3790,10 +3790,10 @@
         <v>1378242</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC27" s="3"/>
     </row>
@@ -3802,7 +3802,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3">
         <v>29</v>
@@ -3865,10 +3865,10 @@
         <v>543571</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC28" s="3"/>
     </row>
@@ -3877,7 +3877,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3">
         <v>7</v>
@@ -3940,10 +3940,10 @@
         <v>1794000</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC29" s="3"/>
     </row>
@@ -3952,7 +3952,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3">
         <v>52</v>
@@ -4015,10 +4015,10 @@
         <v>18000000</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC30" s="3"/>
     </row>
@@ -4027,7 +4027,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3">
         <v>69</v>
@@ -4090,10 +4090,10 @@
         <v>4097000</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC31" s="3"/>
     </row>
@@ -4102,7 +4102,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3">
         <v>77</v>
@@ -4165,10 +4165,10 @@
         <v>23110000</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X32" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC32" s="3"/>
     </row>
@@ -4177,7 +4177,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3">
         <v>81</v>
@@ -4240,10 +4240,10 @@
         <v>3533000</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X33" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC33" s="3"/>
     </row>
@@ -4252,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3">
         <v>64</v>
@@ -4315,10 +4315,10 @@
         <v>20870000</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X34" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC34" s="3"/>
     </row>
@@ -4327,7 +4327,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3">
         <v>39</v>
@@ -4390,10 +4390,10 @@
         <v>8612000</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X35" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC35" s="3"/>
     </row>
@@ -4402,7 +4402,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3">
         <v>81</v>
@@ -4465,10 +4465,10 @@
         <v>5366000</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X36" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC36" s="3"/>
     </row>
@@ -4477,7 +4477,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3">
         <v>65</v>
@@ -4540,10 +4540,10 @@
         <v>15730000</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X37" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC37" s="3"/>
     </row>
@@ -4552,7 +4552,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3">
         <v>82</v>
@@ -4615,10 +4615,10 @@
         <v>22120000</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X38" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC38" s="3"/>
     </row>
@@ -4627,7 +4627,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3">
         <v>62</v>
@@ -4690,10 +4690,10 @@
         <v>13330000</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X39" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC39" s="3"/>
     </row>
@@ -4702,7 +4702,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3">
         <v>74</v>
@@ -4765,10 +4765,10 @@
         <v>306527</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X40" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC40" s="3"/>
     </row>
@@ -4777,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3">
         <v>80</v>
@@ -4840,10 +4840,10 @@
         <v>6333000</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X41" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC41" s="3"/>
     </row>
@@ -4852,7 +4852,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3">
         <v>57</v>
@@ -4915,10 +4915,10 @@
         <v>183115</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X42" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC42" s="3"/>
     </row>
@@ -4927,7 +4927,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>26</v>
@@ -4990,10 +4990,10 @@
         <v>1500000</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X43" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC43" s="3"/>
     </row>
@@ -5002,7 +5002,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3">
         <v>82</v>
@@ -5065,10 +5065,10 @@
         <v>4276000</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X44" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC44" s="3"/>
     </row>
@@ -5077,7 +5077,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3">
         <v>77</v>
@@ -5140,10 +5140,10 @@
         <v>15000000</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X45" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC45" s="3"/>
     </row>
@@ -5152,7 +5152,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3">
         <v>11</v>
@@ -5215,10 +5215,10 @@
         <v>13330000</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X46" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC46" s="3"/>
     </row>
@@ -5227,7 +5227,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3">
         <v>42</v>
@@ -5288,10 +5288,10 @@
         <v>3000000</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X47" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC47" s="3"/>
     </row>
@@ -5300,7 +5300,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3">
         <v>13</v>
@@ -5363,10 +5363,10 @@
         <v>77250</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X48" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC48" s="3"/>
     </row>
@@ -5375,7 +5375,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3">
         <v>82</v>
@@ -5438,10 +5438,10 @@
         <v>17000000</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X49" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC49" s="3"/>
     </row>
@@ -5450,7 +5450,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3">
         <v>67</v>
@@ -5513,10 +5513,10 @@
         <v>3950000</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X50" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC50" s="3"/>
     </row>
@@ -5525,7 +5525,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3">
         <v>51</v>
@@ -5588,10 +5588,10 @@
         <v>6191000</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X51" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC51" s="3"/>
     </row>
@@ -5600,7 +5600,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3">
         <v>19</v>
@@ -5663,10 +5663,10 @@
         <v>1468807</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X52" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC52" s="3"/>
     </row>
@@ -5675,7 +5675,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C53" s="3">
         <v>74</v>
@@ -5738,10 +5738,10 @@
         <v>15620000</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X53" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC53" s="3"/>
     </row>
@@ -5750,7 +5750,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3">
         <v>5</v>
@@ -5813,10 +5813,10 @@
         <v>14409</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X54" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC54" s="3"/>
     </row>
@@ -5825,7 +5825,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3">
         <v>78</v>
@@ -5888,10 +5888,10 @@
         <v>3573000</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X55" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC55" s="3"/>
     </row>
@@ -5900,7 +5900,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3">
         <v>24</v>
@@ -5961,10 +5961,10 @@
         <v>11030000</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X56" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC56" s="3"/>
     </row>
@@ -5973,7 +5973,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
@@ -6036,10 +6036,10 @@
         <v>600000</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X57" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC57" s="3"/>
     </row>
@@ -6048,7 +6048,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3">
         <v>54</v>
@@ -6111,10 +6111,10 @@
         <v>27280000</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X58" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC58" s="3"/>
     </row>
@@ -6123,7 +6123,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3">
         <v>68</v>
@@ -6186,10 +6186,10 @@
         <v>9046000</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X59" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC59" s="3"/>
     </row>
@@ -6198,7 +6198,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -6259,10 +6259,10 @@
         <v>6490000</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X60" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC60" s="3"/>
     </row>
@@ -6271,7 +6271,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3">
         <v>46</v>
@@ -6334,10 +6334,10 @@
         <v>8809000</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X61" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC61" s="3"/>
     </row>
@@ -6346,7 +6346,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C62" s="3">
         <v>9</v>
@@ -6409,10 +6409,10 @@
         <v>3542060</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X62" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC62" s="3"/>
     </row>
@@ -6421,7 +6421,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3">
         <v>72</v>
@@ -6484,10 +6484,10 @@
         <v>7612000</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X63" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC63" s="3"/>
     </row>
@@ -6496,7 +6496,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C64" s="3">
         <v>48</v>
@@ -6559,10 +6559,10 @@
         <v>21250000</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X64" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC64" s="3"/>
     </row>
@@ -6571,7 +6571,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C65" s="3">
         <v>32</v>
@@ -6634,10 +6634,10 @@
         <v>2500000</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X65" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC65" s="3"/>
     </row>
@@ -6646,7 +6646,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C66" s="3">
         <v>82</v>
@@ -6709,10 +6709,10 @@
         <v>11666667</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC66" s="3"/>
     </row>
@@ -6721,7 +6721,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C67" s="3">
         <v>7</v>
@@ -6784,10 +6784,10 @@
         <v>1210000</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC67" s="3"/>
     </row>
@@ -6796,7 +6796,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6857,10 +6857,10 @@
         <v>735723</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X68" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC68" s="3"/>
     </row>
@@ -6869,7 +6869,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C69" s="3">
         <v>20</v>
@@ -6932,10 +6932,10 @@
         <v>680534</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X69" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC69" s="3"/>
     </row>
@@ -6944,7 +6944,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C70" s="3">
         <v>70</v>
@@ -7007,10 +7007,10 @@
         <v>6535000</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X70" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC70" s="3"/>
     </row>
@@ -7019,7 +7019,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C71" s="3">
         <v>14</v>
@@ -7082,10 +7082,10 @@
         <v>800000</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X71" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC71" s="3"/>
     </row>
@@ -7094,7 +7094,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C72" s="3">
         <v>4</v>
@@ -7155,10 +7155,10 @@
         <v>77250</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X72" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC72" s="3"/>
     </row>
@@ -7167,7 +7167,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C73" s="3">
         <v>54</v>
@@ -7230,10 +7230,10 @@
         <v>1678854</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X73" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC73" s="3"/>
     </row>
@@ -7242,7 +7242,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
@@ -7303,10 +7303,10 @@
         <v>543471</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X74" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC74" s="3"/>
     </row>
@@ -7315,7 +7315,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C75" s="3">
         <v>15</v>
@@ -7378,10 +7378,10 @@
         <v>1378242</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X75" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC75" s="3"/>
     </row>
@@ -7390,7 +7390,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C76" s="3">
         <v>62</v>
@@ -7453,10 +7453,10 @@
         <v>1252000</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X76" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC76" s="3"/>
     </row>
@@ -7465,7 +7465,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C77" s="3">
         <v>36</v>
@@ -7528,10 +7528,10 @@
         <v>3387000</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X77" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC77" s="3"/>
     </row>
@@ -7540,7 +7540,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C78" s="3">
         <v>64</v>
@@ -7603,10 +7603,10 @@
         <v>3034000</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X78" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC78" s="3"/>
     </row>
@@ -7615,7 +7615,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C79" s="3">
         <v>59</v>
@@ -7678,10 +7678,10 @@
         <v>16400000</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X79" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC79" s="3"/>
     </row>
@@ -7690,7 +7690,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C80" s="3">
         <v>29</v>
@@ -7753,10 +7753,10 @@
         <v>748160</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X80" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC80" s="3"/>
     </row>
@@ -7765,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C81" s="3">
         <v>12</v>
@@ -7828,10 +7828,10 @@
         <v>1524000</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X81" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC81" s="3"/>
     </row>
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3">
         <v>57</v>
@@ -7903,10 +7903,10 @@
         <v>7708000</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X82" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC82" s="3"/>
     </row>
@@ -7915,7 +7915,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C83" s="3">
         <v>74</v>
@@ -7978,10 +7978,10 @@
         <v>12000000</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X83" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC83" s="3"/>
     </row>
@@ -7990,7 +7990,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C84" s="3">
         <v>20</v>
@@ -8053,10 +8053,10 @@
         <v>1016000</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X84" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC84" s="3"/>
     </row>
@@ -8065,7 +8065,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C85" s="3">
         <v>74</v>
@@ -8128,10 +8128,10 @@
         <v>15520000</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X85" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC85" s="3"/>
     </row>
@@ -8140,7 +8140,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C86" s="3">
         <v>73</v>
@@ -8203,10 +8203,10 @@
         <v>13600000</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X86" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC86" s="3"/>
     </row>
@@ -8215,7 +8215,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C87" s="3">
         <v>58</v>
@@ -8278,10 +8278,10 @@
         <v>2565000</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X87" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC87" s="3"/>
     </row>
@@ -8290,7 +8290,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3">
         <v>52</v>
@@ -8353,10 +8353,10 @@
         <v>3184000</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X88" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC88" s="3"/>
     </row>
@@ -8365,7 +8365,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3">
         <v>37</v>
@@ -8428,10 +8428,10 @@
         <v>2750000</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X89" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC89" s="3"/>
     </row>
@@ -8440,7 +8440,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C90" s="3">
         <v>53</v>
@@ -8503,10 +8503,10 @@
         <v>2964000</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X90" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC90" s="3"/>
     </row>
@@ -8515,7 +8515,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C91" s="3">
         <v>73</v>
@@ -8578,10 +8578,10 @@
         <v>3398000</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC91" s="3"/>
     </row>
@@ -8590,7 +8590,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C92" s="3">
         <v>39</v>
@@ -8653,10 +8653,10 @@
         <v>77250</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC92" s="3"/>
     </row>
@@ -8665,7 +8665,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C93" s="3">
         <v>66</v>
@@ -8728,10 +8728,10 @@
         <v>4000000</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X93" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC93" s="3"/>
     </row>
@@ -8740,7 +8740,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C94" s="3">
         <v>46</v>
@@ -8801,10 +8801,10 @@
         <v>2110000</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X94" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC94" s="3"/>
     </row>
@@ -8813,7 +8813,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C95" s="3">
         <v>74</v>
@@ -8876,10 +8876,10 @@
         <v>7400000</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X95" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC95" s="3"/>
     </row>
@@ -8888,7 +8888,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C96" s="3">
         <v>72</v>
@@ -8951,10 +8951,10 @@
         <v>1824000</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X96" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC96" s="3"/>
     </row>
@@ -8963,7 +8963,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C97" s="3">
         <v>74</v>
@@ -9026,10 +9026,10 @@
         <v>1016000</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X97" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC97" s="3"/>
     </row>
@@ -9038,7 +9038,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C98" s="3">
         <v>81</v>
@@ -9101,10 +9101,10 @@
         <v>12500000</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X98" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC98" s="3"/>
     </row>
@@ -9113,7 +9113,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C99" s="3">
         <v>7</v>
@@ -9176,10 +9176,10 @@
         <v>77250</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X99" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC99" s="3"/>
     </row>
@@ -9188,7 +9188,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C100" s="3">
         <v>17</v>
@@ -9251,10 +9251,10 @@
         <v>158325</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X100" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC100" s="3"/>
     </row>
@@ -9263,7 +9263,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C101" s="3">
         <v>74</v>
@@ -9326,10 +9326,10 @@
         <v>2764966</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X101" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC101" s="3"/>
     </row>
@@ -9338,7 +9338,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C102" s="3">
         <v>66</v>
@@ -9401,10 +9401,10 @@
         <v>4083154</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X102" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC102" s="3"/>
     </row>
@@ -9413,7 +9413,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C103" s="3">
         <v>32</v>
@@ -9476,10 +9476,10 @@
         <v>543471</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X103" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC103" s="3"/>
     </row>
@@ -9488,7 +9488,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C104" s="3">
         <v>69</v>
@@ -9551,10 +9551,10 @@
         <v>1900000</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X104" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC104" s="3"/>
     </row>
@@ -9563,7 +9563,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C105" s="3">
         <v>15</v>
@@ -9624,10 +9624,10 @@
         <v>2242000</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X105" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC105" s="3"/>
     </row>
@@ -9636,7 +9636,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C106" s="3">
         <v>12</v>
@@ -9699,10 +9699,10 @@
         <v>26540000</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X106" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC106" s="3"/>
     </row>
@@ -9711,7 +9711,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C107" s="3">
         <v>82</v>
@@ -9774,10 +9774,10 @@
         <v>1723000</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X107" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC107" s="3"/>
     </row>
@@ -9786,7 +9786,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3">
         <v>33</v>
@@ -9849,10 +9849,10 @@
         <v>3000000</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X108" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC108" s="3"/>
     </row>
@@ -9861,7 +9861,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C109" s="3">
         <v>13</v>
@@ -9924,10 +9924,10 @@
         <v>77250</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X109" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC109" s="3"/>
     </row>
@@ -9936,7 +9936,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C110" s="3">
         <v>7</v>
@@ -9997,10 +9997,10 @@
         <v>77250</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X110" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC110" s="3"/>
     </row>
@@ -10009,7 +10009,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C111" s="3">
         <v>4</v>
@@ -10068,10 +10068,10 @@
         <v>543471</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X111" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC111" s="3"/>
     </row>
@@ -10080,7 +10080,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C112" s="3">
         <v>48</v>
@@ -10143,10 +10143,10 @@
         <v>16960000</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X112" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC112" s="3"/>
     </row>
@@ -10155,7 +10155,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C113" s="3">
         <v>80</v>
@@ -10218,10 +10218,10 @@
         <v>816482</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X113" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC113" s="3"/>
     </row>
@@ -10230,7 +10230,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C114" s="3">
         <v>75</v>
@@ -10293,10 +10293,10 @@
         <v>18500000</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X114" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC114" s="3"/>
     </row>
@@ -10305,7 +10305,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C115" s="3">
         <v>39</v>
@@ -10368,10 +10368,10 @@
         <v>4000000</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X115" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC115" s="3"/>
     </row>
@@ -10380,7 +10380,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C116" s="3">
         <v>80</v>
@@ -10443,10 +10443,10 @@
         <v>14980000</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X116" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC116" s="3"/>
     </row>
@@ -10455,7 +10455,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C117" s="3">
         <v>5</v>
@@ -10518,10 +10518,10 @@
         <v>1015000</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X117" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC117" s="3"/>
     </row>
@@ -10530,7 +10530,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C118" s="4">
         <v>22</v>
@@ -10593,10 +10593,10 @@
         <v>58045</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X118" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC118" s="3"/>
     </row>
@@ -10605,7 +10605,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C119" s="4">
         <v>6</v>
@@ -10668,10 +10668,10 @@
         <v>63516</v>
       </c>
       <c r="W119" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X119" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC119" s="3"/>
     </row>
@@ -10680,7 +10680,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C120" s="4">
         <v>20</v>
@@ -10743,10 +10743,10 @@
         <v>53616</v>
       </c>
       <c r="W120" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X120" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC120" s="3"/>
     </row>
@@ -10755,7 +10755,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C121" s="4">
         <v>19</v>
@@ -10818,10 +10818,10 @@
         <v>58710</v>
       </c>
       <c r="W121" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X121" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC121" s="3"/>
     </row>
@@ -10830,7 +10830,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C122" s="4">
         <v>2</v>
@@ -10893,10 +10893,10 @@
         <v>30000</v>
       </c>
       <c r="W122" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X122" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC122" s="3"/>
     </row>
@@ -10905,7 +10905,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C123" s="4">
         <v>5</v>
@@ -10968,10 +10968,10 @@
         <v>15360</v>
       </c>
       <c r="W123" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X123" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC123" s="3"/>
     </row>
@@ -10980,7 +10980,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C124" s="4">
         <v>22</v>
@@ -11043,10 +11043,10 @@
         <v>117500</v>
       </c>
       <c r="W124" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X124" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC124" s="3"/>
     </row>
@@ -11055,7 +11055,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C125" s="4">
         <v>20</v>
@@ -11118,10 +11118,10 @@
         <v>160000</v>
       </c>
       <c r="W125" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X125" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC125" s="3"/>
     </row>
@@ -11130,7 +11130,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C126" s="4">
         <v>22</v>
@@ -11193,10 +11193,10 @@
         <v>84100</v>
       </c>
       <c r="W126" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X126" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC126" s="3"/>
     </row>
@@ -11205,7 +11205,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C127" s="4">
         <v>21</v>
@@ -11268,10 +11268,10 @@
         <v>200000</v>
       </c>
       <c r="W127" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X127" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC127" s="3"/>
     </row>
@@ -11280,7 +11280,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C128" s="4">
         <v>21</v>
@@ -11343,10 +11343,10 @@
         <v>109000</v>
       </c>
       <c r="W128" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X128" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC128" s="3"/>
     </row>
@@ -11355,7 +11355,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C129" s="4">
         <v>22</v>
@@ -11418,10 +11418,10 @@
         <v>215000</v>
       </c>
       <c r="W129" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X129" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC129" s="3"/>
     </row>
@@ -11430,7 +11430,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C130" s="4">
         <v>22</v>
@@ -11493,10 +11493,10 @@
         <v>170000</v>
       </c>
       <c r="W130" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X130" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC130" s="3"/>
     </row>
@@ -11505,7 +11505,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C131" s="4">
         <v>22</v>
@@ -11568,10 +11568,10 @@
         <v>58170</v>
       </c>
       <c r="W131" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X131" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC131" s="3"/>
     </row>
@@ -11580,7 +11580,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C132" s="4">
         <v>13</v>
@@ -11643,10 +11643,10 @@
         <v>190550</v>
       </c>
       <c r="W132" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X132" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC132" s="3"/>
     </row>
@@ -11655,7 +11655,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C133" s="4">
         <v>13</v>
@@ -11718,10 +11718,10 @@
         <v>70040</v>
       </c>
       <c r="W133" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X133" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC133" s="3"/>
     </row>
@@ -11730,7 +11730,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C134" s="4">
         <v>21</v>
@@ -11793,10 +11793,10 @@
         <v>58710</v>
       </c>
       <c r="W134" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X134" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC134" s="3"/>
     </row>
@@ -11805,7 +11805,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C135" s="4">
         <v>22</v>
@@ -11868,10 +11868,10 @@
         <v>66555</v>
       </c>
       <c r="W135" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X135" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC135" s="3"/>
     </row>
@@ -11880,7 +11880,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C136" s="4">
         <v>22</v>
@@ -11943,10 +11943,10 @@
         <v>190550</v>
       </c>
       <c r="W136" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X136" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC136" s="3"/>
     </row>
@@ -11955,7 +11955,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C137" s="4">
         <v>22</v>
@@ -12018,10 +12018,10 @@
         <v>41695</v>
       </c>
       <c r="W137" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X137" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC137" s="3"/>
     </row>
@@ -12030,7 +12030,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C138" s="4">
         <v>20</v>
@@ -12093,10 +12093,10 @@
         <v>190500</v>
       </c>
       <c r="W138" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X138" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC138" s="3"/>
     </row>
@@ -12105,7 +12105,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C139" s="4">
         <v>13</v>
@@ -12168,10 +12168,10 @@
         <v>185000</v>
       </c>
       <c r="W139" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X139" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC139" s="3"/>
     </row>
@@ -12180,7 +12180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C140" s="4">
         <v>18</v>
@@ -12243,10 +12243,10 @@
         <v>53290</v>
       </c>
       <c r="W140" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X140" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC140" s="3"/>
     </row>
@@ -12255,7 +12255,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C141" s="4">
         <v>13</v>
@@ -12318,10 +12318,10 @@
         <v>121500</v>
       </c>
       <c r="W141" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X141" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC141" s="3"/>
     </row>
@@ -12330,7 +12330,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C142" s="4">
         <v>22</v>
@@ -12393,10 +12393,10 @@
         <v>44207</v>
       </c>
       <c r="W142" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X142" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC142" s="3"/>
     </row>
@@ -12405,7 +12405,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C143" s="4">
         <v>22</v>
@@ -12468,10 +12468,10 @@
         <v>58170</v>
       </c>
       <c r="W143" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X143" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC143" s="3"/>
     </row>
@@ -12480,7 +12480,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C144" s="4">
         <v>21</v>
@@ -12543,10 +12543,10 @@
         <v>120000</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X144" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC144" s="3"/>
     </row>
@@ -12555,7 +12555,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C145" s="4">
         <v>5</v>
@@ -12618,10 +12618,10 @@
         <v>59750</v>
       </c>
       <c r="W145" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X145" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC145" s="3"/>
     </row>
@@ -12630,7 +12630,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C146" s="4">
         <v>12</v>
@@ -12693,10 +12693,10 @@
         <v>215000</v>
       </c>
       <c r="W146" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X146" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC146" s="3"/>
     </row>
@@ -12705,7 +12705,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C147" s="4">
         <v>21</v>
@@ -12768,10 +12768,10 @@
         <v>52428</v>
       </c>
       <c r="W147" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X147" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC147" s="3"/>
     </row>
@@ -12780,7 +12780,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C148" s="4">
         <v>22</v>
@@ -12843,10 +12843,10 @@
         <v>190000</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X148" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC148" s="3"/>
     </row>
@@ -12855,7 +12855,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C149" s="4">
         <v>22</v>
@@ -12918,10 +12918,10 @@
         <v>170000</v>
       </c>
       <c r="W149" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X149" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC149" s="3"/>
     </row>
@@ -12930,7 +12930,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C150" s="4">
         <v>22</v>
@@ -12993,10 +12993,10 @@
         <v>84150</v>
       </c>
       <c r="W150" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X150" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC150" s="3"/>
     </row>
@@ -13005,7 +13005,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C151" s="4">
         <v>22</v>
@@ -13068,10 +13068,10 @@
         <v>115000</v>
       </c>
       <c r="W151" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X151" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC151" s="3"/>
     </row>
@@ -13080,7 +13080,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C152" s="4">
         <v>16</v>
@@ -13143,10 +13143,10 @@
         <v>69300</v>
       </c>
       <c r="W152" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X152" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC152" s="3"/>
     </row>
@@ -13155,7 +13155,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C153" s="4">
         <v>20</v>
@@ -13218,10 +13218,10 @@
         <v>192500</v>
       </c>
       <c r="W153" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X153" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC153" s="3"/>
     </row>
@@ -13230,7 +13230,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C154" s="4">
         <v>13</v>
@@ -13293,10 +13293,10 @@
         <v>58710</v>
       </c>
       <c r="W154" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X154" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC154" s="3"/>
     </row>
@@ -13305,7 +13305,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C155" s="4">
         <v>22</v>
@@ -13368,10 +13368,10 @@
         <v>200000</v>
       </c>
       <c r="W155" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X155" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC155" s="3"/>
     </row>
@@ -13380,7 +13380,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C156" s="4">
         <v>20</v>
@@ -13443,10 +13443,10 @@
         <v>185000</v>
       </c>
       <c r="W156" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X156" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC156" s="3"/>
     </row>
@@ -13455,7 +13455,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C157" s="4">
         <v>21</v>
@@ -13518,10 +13518,10 @@
         <v>62579</v>
       </c>
       <c r="W157" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X157" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC157" s="3"/>
     </row>
@@ -13530,7 +13530,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C158" s="4">
         <v>13</v>
@@ -13593,10 +13593,10 @@
         <v>105000</v>
       </c>
       <c r="W158" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X158" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC158" s="3"/>
     </row>
@@ -13605,7 +13605,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C159" s="4">
         <v>22</v>
@@ -13668,10 +13668,10 @@
         <v>126000</v>
       </c>
       <c r="W159" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X159" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC159" s="3"/>
     </row>
@@ -13680,7 +13680,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C160" s="4">
         <v>22</v>
@@ -13743,10 +13743,10 @@
         <v>110000</v>
       </c>
       <c r="W160" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X160" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC160" s="3"/>
     </row>
@@ -13755,7 +13755,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C161" s="4">
         <v>22</v>
@@ -13818,10 +13818,10 @@
         <v>224870</v>
       </c>
       <c r="W161" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X161" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC161" s="3"/>
     </row>
@@ -13830,7 +13830,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C162" s="4">
         <v>22</v>
@@ -13893,10 +13893,10 @@
         <v>117000</v>
       </c>
       <c r="W162" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X162" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC162" s="3"/>
     </row>
@@ -13905,7 +13905,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C163" s="4">
         <v>13</v>
@@ -13968,10 +13968,10 @@
         <v>70040</v>
       </c>
       <c r="W163" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X163" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC163" s="3"/>
     </row>
@@ -13980,7 +13980,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C164" s="4">
         <v>19</v>
@@ -14043,10 +14043,10 @@
         <v>119500</v>
       </c>
       <c r="W164" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X164" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC164" s="3"/>
     </row>
@@ -14055,7 +14055,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C165" s="4">
         <v>22</v>
@@ -14118,10 +14118,10 @@
         <v>119000</v>
       </c>
       <c r="W165" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X165" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC165" s="3"/>
     </row>
@@ -14130,7 +14130,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C166" s="4">
         <v>20</v>
@@ -14193,10 +14193,10 @@
         <v>215000</v>
       </c>
       <c r="W166" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X166" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC166" s="3"/>
     </row>
@@ -14205,7 +14205,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C167" s="4">
         <v>15</v>
@@ -14268,10 +14268,10 @@
         <v>68000</v>
       </c>
       <c r="W167" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X167" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC167" s="3"/>
     </row>
@@ -14280,7 +14280,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C168" s="4">
         <v>20</v>
@@ -14343,10 +14343,10 @@
         <v>72000</v>
       </c>
       <c r="W168" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X168" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC168" s="3"/>
     </row>
@@ -14355,7 +14355,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C169" s="4">
         <v>21</v>
@@ -14418,10 +14418,10 @@
         <v>57000</v>
       </c>
       <c r="W169" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X169" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC169" s="3"/>
     </row>
@@ -14430,7 +14430,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C170" s="4">
         <v>22</v>
@@ -14493,10 +14493,10 @@
         <v>58170</v>
       </c>
       <c r="W170" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X170" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC170" s="3"/>
     </row>
@@ -14505,7 +14505,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C171" s="4">
         <v>22</v>
@@ -14568,10 +14568,10 @@
         <v>70040</v>
       </c>
       <c r="W171" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X171" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC171" s="3"/>
     </row>
@@ -14580,7 +14580,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C172" s="4">
         <v>18</v>
@@ -14643,10 +14643,10 @@
         <v>60000</v>
       </c>
       <c r="W172" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X172" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC172" s="3"/>
     </row>
@@ -14655,7 +14655,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -14718,10 +14718,10 @@
         <v>154500</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X173" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC173" s="3"/>
     </row>
@@ -14730,7 +14730,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C174" s="4">
         <v>22</v>
@@ -14793,10 +14793,10 @@
         <v>59071</v>
       </c>
       <c r="W174" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X174" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC174" s="3"/>
     </row>
@@ -14805,7 +14805,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C175" s="4">
         <v>19</v>
@@ -14868,10 +14868,10 @@
         <v>185000</v>
       </c>
       <c r="W175" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X175" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC175" s="3"/>
     </row>
@@ -14880,7 +14880,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C176" s="4">
         <v>12</v>
@@ -14943,10 +14943,10 @@
         <v>59750</v>
       </c>
       <c r="W176" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X176" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC176" s="3"/>
     </row>
@@ -14955,7 +14955,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C177" s="4">
         <v>20</v>
@@ -15018,10 +15018,10 @@
         <v>63571</v>
       </c>
       <c r="W177" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X177" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC177" s="3"/>
     </row>
@@ -15030,7 +15030,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C178" s="4">
         <v>22</v>
@@ -15093,10 +15093,10 @@
         <v>119500</v>
       </c>
       <c r="W178" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X178" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC178" s="3"/>
     </row>
@@ -15105,7 +15105,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C179" s="4">
         <v>22</v>
@@ -15168,10 +15168,10 @@
         <v>65459</v>
       </c>
       <c r="W179" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X179" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC179" s="3"/>
     </row>
@@ -15180,7 +15180,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C180" s="4">
         <v>20</v>
@@ -15243,10 +15243,10 @@
         <v>70040</v>
       </c>
       <c r="W180" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X180" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC180" s="3"/>
     </row>
@@ -15255,7 +15255,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C181" s="4">
         <v>19</v>
@@ -15318,10 +15318,10 @@
         <v>58710</v>
       </c>
       <c r="W181" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X181" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC181" s="3"/>
     </row>
@@ -15330,7 +15330,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C182" s="4">
         <v>22</v>
@@ -15393,10 +15393,10 @@
         <v>58710</v>
       </c>
       <c r="W182" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X182" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC182" s="3"/>
     </row>
@@ -15405,7 +15405,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -15468,10 +15468,10 @@
         <v>70040</v>
       </c>
       <c r="W183" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X183" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC183" s="3"/>
     </row>
@@ -15480,7 +15480,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C184" s="4">
         <v>22</v>
@@ -15543,10 +15543,10 @@
         <v>165000</v>
       </c>
       <c r="W184" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X184" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC184" s="3"/>
     </row>
@@ -15555,7 +15555,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C185" s="4">
         <v>21</v>
@@ -15618,10 +15618,10 @@
         <v>60946</v>
       </c>
       <c r="W185" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X185" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC185" s="3"/>
     </row>
@@ -15630,7 +15630,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C186" s="4">
         <v>10</v>
@@ -15693,10 +15693,10 @@
         <v>57000</v>
       </c>
       <c r="W186" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X186" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC186" s="3"/>
     </row>
@@ -15705,7 +15705,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C187" s="4">
         <v>16</v>
@@ -15768,10 +15768,10 @@
         <v>71400</v>
       </c>
       <c r="W187" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X187" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC187" s="3"/>
     </row>
@@ -15780,7 +15780,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C188" s="4">
         <v>7</v>
@@ -15843,10 +15843,10 @@
         <v>58710</v>
       </c>
       <c r="W188" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X188" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC188" s="3"/>
     </row>
@@ -15855,7 +15855,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C189" s="4">
         <v>18</v>
@@ -15918,10 +15918,10 @@
         <v>62579</v>
       </c>
       <c r="W189" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X189" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC189" s="3"/>
     </row>
@@ -15930,7 +15930,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C190" s="4">
         <v>22</v>
@@ -15993,10 +15993,10 @@
         <v>53537</v>
       </c>
       <c r="W190" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X190" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC190" s="3"/>
     </row>
@@ -16005,7 +16005,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C191" s="4">
         <v>16</v>
@@ -16068,10 +16068,10 @@
         <v>93600</v>
       </c>
       <c r="W191" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X191" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC191" s="3"/>
     </row>
@@ -16080,7 +16080,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C192" s="4">
         <v>22</v>
@@ -16143,10 +16143,10 @@
         <v>190550</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X192" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC192" s="3"/>
     </row>
@@ -16155,7 +16155,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C193" s="4">
         <v>22</v>
@@ -16218,10 +16218,10 @@
         <v>89200</v>
       </c>
       <c r="W193" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X193" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC193" s="3"/>
     </row>
@@ -16230,7 +16230,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C194" s="4">
         <v>22</v>
@@ -16293,10 +16293,10 @@
         <v>58045</v>
       </c>
       <c r="W194" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X194" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC194" s="3"/>
     </row>
@@ -16305,7 +16305,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C195" s="4">
         <v>22</v>
@@ -16368,10 +16368,10 @@
         <v>57000</v>
       </c>
       <c r="W195" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X195" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC195" s="3"/>
     </row>
@@ -16380,7 +16380,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C196" s="4">
         <v>21</v>
@@ -16443,10 +16443,10 @@
         <v>57000</v>
       </c>
       <c r="W196" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X196" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC196" s="3"/>
     </row>
@@ -16455,7 +16455,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C197" s="4">
         <v>22</v>
@@ -16518,10 +16518,10 @@
         <v>41574</v>
       </c>
       <c r="W197" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X197" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC197" s="3"/>
     </row>
@@ -16530,7 +16530,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C198" s="4">
         <v>22</v>
@@ -16593,10 +16593,10 @@
         <v>109200</v>
       </c>
       <c r="W198" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X198" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC198" s="3"/>
     </row>
@@ -16605,7 +16605,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C199" s="4">
         <v>19</v>
@@ -16668,10 +16668,10 @@
         <v>58710</v>
       </c>
       <c r="W199" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X199" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC199" s="3"/>
     </row>
@@ -16680,7 +16680,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C200" s="4">
         <v>17</v>
@@ -16743,10 +16743,10 @@
         <v>58710</v>
       </c>
       <c r="W200" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X200" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC200" s="3"/>
     </row>
@@ -16755,7 +16755,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C201" s="4">
         <v>20</v>
@@ -16818,10 +16818,10 @@
         <v>59750</v>
       </c>
       <c r="W201" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X201" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC201" s="3"/>
     </row>
@@ -16830,7 +16830,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C202" s="4">
         <v>14</v>
@@ -16893,10 +16893,10 @@
         <v>68000</v>
       </c>
       <c r="W202" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X202" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC202" s="3"/>
     </row>
@@ -16905,7 +16905,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C203" s="4">
         <v>19</v>
@@ -16968,10 +16968,10 @@
         <v>120000</v>
       </c>
       <c r="W203" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X203" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC203" s="3"/>
     </row>
@@ -16980,7 +16980,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C204" s="4">
         <v>22</v>
@@ -17043,10 +17043,10 @@
         <v>60946</v>
       </c>
       <c r="W204" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X204" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC204" s="3"/>
     </row>
@@ -17055,7 +17055,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C205" s="4">
         <v>22</v>
@@ -17118,10 +17118,10 @@
         <v>123500</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X205" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC205" s="3"/>
     </row>
@@ -17130,7 +17130,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C206" s="4">
         <v>17</v>
@@ -17193,10 +17193,10 @@
         <v>47930</v>
       </c>
       <c r="W206" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X206" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC206" s="3"/>
     </row>
@@ -17205,7 +17205,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C207" s="4">
         <v>21</v>
@@ -17268,10 +17268,10 @@
         <v>70040</v>
       </c>
       <c r="W207" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X207" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC207" s="3"/>
     </row>
@@ -17280,7 +17280,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
@@ -17343,10 +17343,10 @@
         <v>47930</v>
       </c>
       <c r="W208" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X208" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC208" s="3"/>
     </row>
@@ -17355,7 +17355,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C209" s="4">
         <v>18</v>
@@ -17418,10 +17418,10 @@
         <v>57000</v>
       </c>
       <c r="W209" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X209" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC209" s="3"/>
     </row>
@@ -17430,7 +17430,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C210" s="4">
         <v>9</v>
@@ -17493,10 +17493,10 @@
         <v>63500</v>
       </c>
       <c r="W210" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X210" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC210" s="3"/>
     </row>
@@ -17505,7 +17505,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C211" s="4">
         <v>18</v>
@@ -17568,10 +17568,10 @@
         <v>62500</v>
       </c>
       <c r="W211" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X211" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC211" s="3"/>
     </row>
@@ -17580,7 +17580,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C212" s="4">
         <v>22</v>
@@ -17643,10 +17643,10 @@
         <v>70040</v>
       </c>
       <c r="W212" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X212" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC212" s="3"/>
     </row>
@@ -17655,7 +17655,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C213" s="4">
         <v>21</v>
@@ -17718,10 +17718,10 @@
         <v>65250</v>
       </c>
       <c r="W213" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X213" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC213" s="3"/>
     </row>
@@ -17730,7 +17730,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C214" s="4">
         <v>22</v>
@@ -17793,10 +17793,10 @@
         <v>57000</v>
       </c>
       <c r="W214" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X214" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC214" s="3"/>
     </row>
@@ -17805,7 +17805,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C215" s="4">
         <v>10</v>
@@ -17868,10 +17868,10 @@
         <v>115000</v>
       </c>
       <c r="W215" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X215" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC215" s="3"/>
     </row>
@@ -17880,7 +17880,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C216" s="4">
         <v>9</v>
@@ -17943,10 +17943,10 @@
         <v>175100</v>
       </c>
       <c r="W216" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X216" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC216" s="3"/>
     </row>
@@ -17955,7 +17955,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C217" s="4">
         <v>22</v>
@@ -18018,10 +18018,10 @@
         <v>70040</v>
       </c>
       <c r="W217" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X217" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC217" s="3"/>
     </row>
@@ -18030,7 +18030,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C218" s="4">
         <v>22</v>
@@ -18093,10 +18093,10 @@
         <v>58710</v>
       </c>
       <c r="W218" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X218" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC218" s="3"/>
     </row>
@@ -18105,7 +18105,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C219" s="4">
         <v>18</v>
@@ -18168,10 +18168,10 @@
         <v>159867</v>
       </c>
       <c r="W219" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X219" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC219" s="3"/>
     </row>
@@ -18180,7 +18180,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C220" s="4">
         <v>22</v>
@@ -18243,10 +18243,10 @@
         <v>215000</v>
       </c>
       <c r="W220" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X220" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC220" s="3"/>
     </row>
@@ -18255,7 +18255,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C221" s="4">
         <v>22</v>
@@ -18318,10 +18318,10 @@
         <v>27598</v>
       </c>
       <c r="W221" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X221" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC221" s="3"/>
     </row>
@@ -18330,7 +18330,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C222" s="4">
         <v>15</v>
@@ -18393,10 +18393,10 @@
         <v>68000</v>
       </c>
       <c r="W222" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X222" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC222" s="3"/>
     </row>
@@ -18405,7 +18405,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C223" s="4">
         <v>18</v>
@@ -18468,10 +18468,10 @@
         <v>63710</v>
       </c>
       <c r="W223" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X223" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC223" s="3"/>
     </row>
@@ -18480,7 +18480,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C224" s="4">
         <v>13</v>
@@ -18543,10 +18543,10 @@
         <v>117000</v>
       </c>
       <c r="W224" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X224" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC224" s="3"/>
     </row>
@@ -18555,7 +18555,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C225" s="4">
         <v>11</v>
@@ -18618,10 +18618,10 @@
         <v>57000</v>
       </c>
       <c r="W225" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X225" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC225" s="3"/>
     </row>
@@ -18630,7 +18630,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C226" s="4">
         <v>20</v>
@@ -18693,10 +18693,10 @@
         <v>103000</v>
       </c>
       <c r="W226" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X226" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC226" s="3"/>
     </row>
@@ -18705,7 +18705,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C227" s="4">
         <v>10</v>
@@ -18768,10 +18768,10 @@
         <v>68000</v>
       </c>
       <c r="W227" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X227" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC227" s="3"/>
     </row>
@@ -18780,7 +18780,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C228" s="4">
         <v>21</v>
@@ -18843,10 +18843,10 @@
         <v>112000</v>
       </c>
       <c r="W228" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X228" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC228" s="3"/>
     </row>
@@ -18855,7 +18855,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C229" s="4">
         <v>22</v>
@@ -18918,10 +18918,10 @@
         <v>65250</v>
       </c>
       <c r="W229" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X229" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC229" s="3"/>
     </row>
@@ -18930,7 +18930,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C230" s="4">
         <v>3</v>
@@ -18993,10 +18993,10 @@
         <v>68000</v>
       </c>
       <c r="W230" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X230" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC230" s="3"/>
     </row>
@@ -19005,7 +19005,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C231" s="4">
         <v>22</v>
@@ -19068,10 +19068,10 @@
         <v>50000</v>
       </c>
       <c r="W231" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X231" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC231" s="3"/>
     </row>
@@ -19080,7 +19080,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C232" s="4">
         <v>16</v>
@@ -19143,10 +19143,10 @@
         <v>68000</v>
       </c>
       <c r="W232" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X232" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC232" s="3"/>
     </row>
@@ -19155,7 +19155,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C233" s="4">
         <v>21</v>
@@ -19218,10 +19218,10 @@
         <v>70040</v>
       </c>
       <c r="W233" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X233" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC233" s="3"/>
     </row>
@@ -19230,7 +19230,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C234" s="4">
         <v>21</v>
@@ -19293,10 +19293,10 @@
         <v>52656</v>
       </c>
       <c r="W234" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X234" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC234" s="3"/>
     </row>
@@ -19305,7 +19305,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C235" s="4">
         <v>22</v>
@@ -19368,10 +19368,10 @@
         <v>170000</v>
       </c>
       <c r="W235" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X235" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC235" s="3"/>
     </row>
@@ -19380,7 +19380,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C236" s="4">
         <v>17</v>
@@ -19443,10 +19443,10 @@
         <v>58170</v>
       </c>
       <c r="W236" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X236" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC236" s="3"/>
     </row>
@@ -19455,7 +19455,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C237" s="4">
         <v>17</v>
@@ -19518,10 +19518,10 @@
         <v>2723</v>
       </c>
       <c r="W237" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X237" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC237" s="3"/>
     </row>
@@ -19530,7 +19530,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C238" s="4">
         <v>22</v>
@@ -19593,10 +19593,10 @@
         <v>221450</v>
       </c>
       <c r="W238" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X238" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC238" s="3"/>
     </row>
@@ -19605,7 +19605,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C239" s="4">
         <v>21</v>
@@ -19668,10 +19668,10 @@
         <v>42570</v>
       </c>
       <c r="W239" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X239" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC239" s="3"/>
     </row>
@@ -19680,7 +19680,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C240" s="4">
         <v>15</v>
@@ -19743,10 +19743,10 @@
         <v>180250</v>
       </c>
       <c r="W240" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X240" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC240" s="3"/>
     </row>
@@ -19755,7 +19755,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C241" s="4">
         <v>9</v>
@@ -19818,10 +19818,10 @@
         <v>58710</v>
       </c>
       <c r="W241" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X241" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC241" s="3"/>
     </row>
@@ -19830,7 +19830,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C242" s="4">
         <v>10</v>
@@ -19893,10 +19893,10 @@
         <v>70040</v>
       </c>
       <c r="W242" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X242" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC242" s="3"/>
     </row>
@@ -19905,7 +19905,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C243" s="4">
         <v>11</v>
@@ -19968,10 +19968,10 @@
         <v>215000</v>
       </c>
       <c r="W243" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X243" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC243" s="3"/>
     </row>
@@ -19980,7 +19980,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C244" s="4">
         <v>12</v>
@@ -20043,10 +20043,10 @@
         <v>58710</v>
       </c>
       <c r="W244" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X244" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC244" s="3"/>
     </row>
@@ -20055,7 +20055,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C245" s="4">
         <v>22</v>
@@ -20118,10 +20118,10 @@
         <v>80000</v>
       </c>
       <c r="W245" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X245" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC245" s="3"/>
     </row>
@@ -20130,7 +20130,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C246" s="4">
         <v>17</v>
@@ -20193,10 +20193,10 @@
         <v>70000</v>
       </c>
       <c r="W246" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X246" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC246" s="3"/>
     </row>
@@ -20205,7 +20205,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C247" s="4">
         <v>19</v>
@@ -20268,10 +20268,10 @@
         <v>80000</v>
       </c>
       <c r="W247" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X247" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC247" s="3"/>
     </row>
@@ -20280,7 +20280,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C248" s="4">
         <v>7</v>
@@ -20343,10 +20343,10 @@
         <v>210000</v>
       </c>
       <c r="W248" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X248" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC248" s="3"/>
     </row>
@@ -20355,7 +20355,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C249" s="4">
         <v>20</v>
@@ -20418,10 +20418,10 @@
         <v>58170</v>
       </c>
       <c r="W249" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X249" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC249" s="3"/>
     </row>
@@ -20430,7 +20430,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C250" s="4">
         <v>22</v>
@@ -20493,10 +20493,10 @@
         <v>60609</v>
       </c>
       <c r="W250" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X250" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC250" s="3"/>
     </row>
@@ -20505,7 +20505,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C251" s="4">
         <v>13</v>
@@ -20568,10 +20568,10 @@
         <v>104000</v>
       </c>
       <c r="W251" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X251" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC251" s="3"/>
     </row>
@@ -20580,7 +20580,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C252" s="4">
         <v>17</v>
@@ -20643,10 +20643,10 @@
         <v>140000</v>
       </c>
       <c r="W252" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X252" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC252" s="3"/>
     </row>
@@ -20655,7 +20655,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C253" s="4">
         <v>17</v>
@@ -20718,10 +20718,10 @@
         <v>90000</v>
       </c>
       <c r="W253" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X253" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC253" s="3"/>
     </row>
@@ -20730,7 +20730,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C254" s="4">
         <v>19</v>
@@ -20793,10 +20793,10 @@
         <v>144000</v>
       </c>
       <c r="W254" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X254" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC254" s="3"/>
     </row>
@@ -20805,7 +20805,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C255" s="4">
         <v>21</v>
@@ -20868,10 +20868,10 @@
         <v>68339</v>
       </c>
       <c r="W255" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X255" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC255" s="3"/>
     </row>
@@ -20880,7 +20880,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C256" s="4">
         <v>6</v>
@@ -20943,10 +20943,10 @@
         <v>62041</v>
       </c>
       <c r="W256" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X256" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC256" s="3"/>
     </row>

--- a/nba_merged.xlsx
+++ b/nba_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\GitHub\groupAC-3_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF60F77-B413-47D0-9490-D5B2C441E5E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6699E7CF-5DD8-478E-83A4-FA268BAF0B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="1755" windowWidth="17460" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="284">
   <si>
     <t>Rk</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>Free_Throws</t>
+  </si>
+  <si>
+    <t>TV Ratings (Finals)</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1750,7 @@
   <dimension ref="A1:AC642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1775,8 @@
     <col min="22" max="22" width="16.85546875" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="26" max="27" width="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
@@ -1851,6 +1855,9 @@
       <c r="X1" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1926,6 +1933,9 @@
       <c r="X2" t="s">
         <v>273</v>
       </c>
+      <c r="Y2" s="6">
+        <v>7450000</v>
+      </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -2000,6 +2010,9 @@
       </c>
       <c r="X3" t="s">
         <v>273</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>570000</v>
       </c>
       <c r="AC3" s="3"/>
     </row>
